--- a/resources/SistemasInformacionII_Actualizado.xlsx
+++ b/resources/SistemasInformacionII_Actualizado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Documents\NetBeansProjects\nominas2022\resources\original 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\UNIVERSIDAD\Curso 21-22\Sistemas de Información II\Práctica 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADC5109-EC2E-4D1C-BFA7-9AFB2815AF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADF13E0-3613-4B58-B3FC-0EB3EC2D078C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="8" r:id="rId1"/>
@@ -2327,7 +2327,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2337,66 +2337,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B2">
-        <v>23.6</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B4">
-        <v>6.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B5">
-        <v>0.6</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B6">
-        <v>4.7</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B7">
-        <v>1.6</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B8">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -2409,7 +2409,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2431,7 +2431,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2439,7 +2439,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2447,7 +2447,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2455,7 +2455,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2463,7 +2463,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2471,7 +2471,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2479,7 +2479,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2487,7 +2487,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2495,7 +2495,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2503,7 +2503,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2511,7 +2511,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2519,7 +2519,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2527,7 +2527,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2535,7 +2535,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2543,7 +2543,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2551,7 +2551,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2559,7 +2559,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2567,7 +2567,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -2579,8 +2579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2607,156 +2607,156 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>1850</v>
+        <v>3750</v>
       </c>
       <c r="C2">
-        <v>12500</v>
+        <v>21500</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="B3">
-        <v>1500</v>
+        <v>4500</v>
       </c>
       <c r="C3">
-        <v>13000</v>
+        <v>31500</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B4">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="C4">
-        <v>14000</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B5">
-        <v>3500</v>
+        <v>1600</v>
       </c>
       <c r="C5">
-        <v>19000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6">
-        <v>4800</v>
+        <v>1500</v>
       </c>
       <c r="C6">
-        <v>26000</v>
+        <v>20500</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B7">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="C7">
-        <v>17000</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B8">
-        <v>3500</v>
+        <v>1250</v>
       </c>
       <c r="C8">
-        <v>21000</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B9">
-        <v>10500</v>
+        <v>5800</v>
       </c>
       <c r="C9">
-        <v>31000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>1000</v>
+        <v>1950</v>
       </c>
       <c r="C10">
-        <v>12000</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>1350</v>
+        <v>1800</v>
       </c>
       <c r="C11">
-        <v>14500</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="C12">
-        <v>20000</v>
+        <v>14500</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B13">
-        <v>1100</v>
+        <v>3750</v>
       </c>
       <c r="C13">
-        <v>16000</v>
+        <v>19500</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14">
-        <v>1100</v>
+        <v>4900</v>
       </c>
       <c r="C14">
-        <v>11000</v>
+        <v>26500</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>5500</v>
+        <v>2750</v>
       </c>
       <c r="C15">
-        <v>31000</v>
+        <v>17500</v>
       </c>
     </row>
   </sheetData>
@@ -2768,8 +2768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EF4386-161F-40EB-988F-578A9F806D0A}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2790,7 +2790,7 @@
         <v>12000</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2798,7 +2798,7 @@
         <v>13000</v>
       </c>
       <c r="B3">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2806,7 +2806,7 @@
         <v>14000</v>
       </c>
       <c r="B4">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2814,7 +2814,7 @@
         <v>15000</v>
       </c>
       <c r="B5">
-        <v>8.5</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2822,7 +2822,7 @@
         <v>16000</v>
       </c>
       <c r="B6">
-        <v>9.5500000000000007</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2830,7 +2830,7 @@
         <v>17000</v>
       </c>
       <c r="B7">
-        <v>10.35</v>
+        <v>10.55</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2838,7 +2838,7 @@
         <v>18000</v>
       </c>
       <c r="B8">
-        <v>11.15</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2846,7 +2846,7 @@
         <v>19000</v>
       </c>
       <c r="B9">
-        <v>11.75</v>
+        <v>11.95</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2854,7 +2854,7 @@
         <v>20000</v>
       </c>
       <c r="B10">
-        <v>12.15</v>
+        <v>12.35</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2862,7 +2862,7 @@
         <v>21000</v>
       </c>
       <c r="B11">
-        <v>12.8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2870,7 +2870,7 @@
         <v>22000</v>
       </c>
       <c r="B12">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2878,7 +2878,7 @@
         <v>23000</v>
       </c>
       <c r="B13">
-        <v>13.65</v>
+        <v>13.85</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2886,7 +2886,7 @@
         <v>24000</v>
       </c>
       <c r="B14">
-        <v>14.15</v>
+        <v>14.25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2894,7 +2894,7 @@
         <v>25000</v>
       </c>
       <c r="B15">
-        <v>14.8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2902,7 +2902,7 @@
         <v>26000</v>
       </c>
       <c r="B16">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2910,7 +2910,7 @@
         <v>27000</v>
       </c>
       <c r="B17">
-        <v>15.8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2918,7 +2918,7 @@
         <v>28000</v>
       </c>
       <c r="B18">
-        <v>16.2</v>
+        <v>16.399999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2926,7 +2926,7 @@
         <v>29000</v>
       </c>
       <c r="B19">
-        <v>16.7</v>
+        <v>16.899999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2934,7 +2934,7 @@
         <v>30000</v>
       </c>
       <c r="B20">
-        <v>17.25</v>
+        <v>17.45</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2942,7 +2942,7 @@
         <v>31000</v>
       </c>
       <c r="B21">
-        <v>17.45</v>
+        <v>17.649999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2950,7 +2950,7 @@
         <v>32000</v>
       </c>
       <c r="B22">
-        <v>17.8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2958,7 +2958,7 @@
         <v>33000</v>
       </c>
       <c r="B23">
-        <v>18.149999999999999</v>
+        <v>18.350000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2966,7 +2966,7 @@
         <v>34000</v>
       </c>
       <c r="B24">
-        <v>18.399999999999999</v>
+        <v>18.600000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2974,7 +2974,7 @@
         <v>35000</v>
       </c>
       <c r="B25">
-        <v>18.7</v>
+        <v>18.899999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2982,7 +2982,7 @@
         <v>36000</v>
       </c>
       <c r="B26">
-        <v>19</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2990,7 +2990,7 @@
         <v>37000</v>
       </c>
       <c r="B27">
-        <v>19.25</v>
+        <v>19.45</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2998,7 +2998,7 @@
         <v>38000</v>
       </c>
       <c r="B28">
-        <v>19.62</v>
+        <v>19.850000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -3006,7 +3006,7 @@
         <v>39000</v>
       </c>
       <c r="B29">
-        <v>19.96</v>
+        <v>20.100000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -3014,7 +3014,7 @@
         <v>40000</v>
       </c>
       <c r="B30">
-        <v>20.18</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -3022,7 +3022,7 @@
         <v>41000</v>
       </c>
       <c r="B31">
-        <v>20.52</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -3038,7 +3038,7 @@
         <v>43000</v>
       </c>
       <c r="B33">
-        <v>21.12</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -3046,7 +3046,7 @@
         <v>44000</v>
       </c>
       <c r="B34">
-        <v>21.45</v>
+        <v>21.65</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -3054,7 +3054,7 @@
         <v>45000</v>
       </c>
       <c r="B35">
-        <v>21.75</v>
+        <v>21.95</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -3062,7 +3062,7 @@
         <v>46000</v>
       </c>
       <c r="B36">
-        <v>22.02</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -3070,7 +3070,7 @@
         <v>47000</v>
       </c>
       <c r="B37">
-        <v>22.32</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -3186,7 +3186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFE799B-BBDF-4C05-AA5B-57EE87F6BA00}">
   <dimension ref="A1:M136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>

--- a/resources/SistemasInformacionII_Actualizado.xlsx
+++ b/resources/SistemasInformacionII_Actualizado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\UNIVERSIDAD\Curso 21-22\Sistemas de Información II\Práctica 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Documents\NetBeansProjects\nominas2022\resources\original 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADF13E0-3613-4B58-B3FC-0EB3EC2D078C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADC5109-EC2E-4D1C-BFA7-9AFB2815AF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="8" r:id="rId1"/>
@@ -2327,7 +2327,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2337,66 +2337,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B1">
-        <v>4.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B2">
-        <v>1.6</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B5">
-        <v>23.6</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B6">
-        <v>0.2</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B7">
-        <v>6.7</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B8">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -2409,7 +2409,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2431,7 +2431,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2439,7 +2439,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2447,7 +2447,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2455,7 +2455,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2463,7 +2463,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2471,7 +2471,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2479,7 +2479,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2487,7 +2487,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2495,7 +2495,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2503,7 +2503,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2511,7 +2511,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2519,7 +2519,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2527,7 +2527,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2535,7 +2535,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2543,7 +2543,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2551,7 +2551,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2559,7 +2559,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2567,7 +2567,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2579,8 +2579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2607,156 +2607,156 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>3750</v>
+        <v>1850</v>
       </c>
       <c r="C2">
-        <v>21500</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>4500</v>
+        <v>1500</v>
       </c>
       <c r="C3">
-        <v>31500</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="C4">
-        <v>12500</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B5">
-        <v>1600</v>
+        <v>3500</v>
       </c>
       <c r="C5">
-        <v>15000</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6">
-        <v>1500</v>
+        <v>4800</v>
       </c>
       <c r="C6">
-        <v>20500</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="C7">
-        <v>16500</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>1250</v>
+        <v>3500</v>
       </c>
       <c r="C8">
-        <v>11500</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B9">
-        <v>5800</v>
+        <v>10500</v>
       </c>
       <c r="C9">
-        <v>32000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B10">
-        <v>1950</v>
+        <v>1000</v>
       </c>
       <c r="C10">
-        <v>13000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B11">
-        <v>1800</v>
+        <v>1350</v>
       </c>
       <c r="C11">
-        <v>13500</v>
+        <v>14500</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B12">
-        <v>1900</v>
+        <v>1400</v>
       </c>
       <c r="C12">
-        <v>14500</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B13">
-        <v>3750</v>
+        <v>1100</v>
       </c>
       <c r="C13">
-        <v>19500</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14">
-        <v>4900</v>
+        <v>1100</v>
       </c>
       <c r="C14">
-        <v>26500</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B15">
-        <v>2750</v>
+        <v>5500</v>
       </c>
       <c r="C15">
-        <v>17500</v>
+        <v>31000</v>
       </c>
     </row>
   </sheetData>
@@ -2768,8 +2768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2EF4386-161F-40EB-988F-578A9F806D0A}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2790,7 +2790,7 @@
         <v>12000</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2798,7 +2798,7 @@
         <v>13000</v>
       </c>
       <c r="B3">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2806,7 +2806,7 @@
         <v>14000</v>
       </c>
       <c r="B4">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2814,7 +2814,7 @@
         <v>15000</v>
       </c>
       <c r="B5">
-        <v>8.6999999999999993</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2822,7 +2822,7 @@
         <v>16000</v>
       </c>
       <c r="B6">
-        <v>9.75</v>
+        <v>9.5500000000000007</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2830,7 +2830,7 @@
         <v>17000</v>
       </c>
       <c r="B7">
-        <v>10.55</v>
+        <v>10.35</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2838,7 +2838,7 @@
         <v>18000</v>
       </c>
       <c r="B8">
-        <v>11.25</v>
+        <v>11.15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2846,7 +2846,7 @@
         <v>19000</v>
       </c>
       <c r="B9">
-        <v>11.95</v>
+        <v>11.75</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2854,7 +2854,7 @@
         <v>20000</v>
       </c>
       <c r="B10">
-        <v>12.35</v>
+        <v>12.15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2862,7 +2862,7 @@
         <v>21000</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2870,7 +2870,7 @@
         <v>22000</v>
       </c>
       <c r="B12">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2878,7 +2878,7 @@
         <v>23000</v>
       </c>
       <c r="B13">
-        <v>13.85</v>
+        <v>13.65</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2886,7 +2886,7 @@
         <v>24000</v>
       </c>
       <c r="B14">
-        <v>14.25</v>
+        <v>14.15</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2894,7 +2894,7 @@
         <v>25000</v>
       </c>
       <c r="B15">
-        <v>15</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2902,7 +2902,7 @@
         <v>26000</v>
       </c>
       <c r="B16">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2910,7 +2910,7 @@
         <v>27000</v>
       </c>
       <c r="B17">
-        <v>16</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2918,7 +2918,7 @@
         <v>28000</v>
       </c>
       <c r="B18">
-        <v>16.399999999999999</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2926,7 +2926,7 @@
         <v>29000</v>
       </c>
       <c r="B19">
-        <v>16.899999999999999</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2934,7 +2934,7 @@
         <v>30000</v>
       </c>
       <c r="B20">
-        <v>17.45</v>
+        <v>17.25</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2942,7 +2942,7 @@
         <v>31000</v>
       </c>
       <c r="B21">
-        <v>17.649999999999999</v>
+        <v>17.45</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2950,7 +2950,7 @@
         <v>32000</v>
       </c>
       <c r="B22">
-        <v>18</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2958,7 +2958,7 @@
         <v>33000</v>
       </c>
       <c r="B23">
-        <v>18.350000000000001</v>
+        <v>18.149999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2966,7 +2966,7 @@
         <v>34000</v>
       </c>
       <c r="B24">
-        <v>18.600000000000001</v>
+        <v>18.399999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2974,7 +2974,7 @@
         <v>35000</v>
       </c>
       <c r="B25">
-        <v>18.899999999999999</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2982,7 +2982,7 @@
         <v>36000</v>
       </c>
       <c r="B26">
-        <v>19.2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2990,7 +2990,7 @@
         <v>37000</v>
       </c>
       <c r="B27">
-        <v>19.45</v>
+        <v>19.25</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2998,7 +2998,7 @@
         <v>38000</v>
       </c>
       <c r="B28">
-        <v>19.850000000000001</v>
+        <v>19.62</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -3006,7 +3006,7 @@
         <v>39000</v>
       </c>
       <c r="B29">
-        <v>20.100000000000001</v>
+        <v>19.96</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -3014,7 +3014,7 @@
         <v>40000</v>
       </c>
       <c r="B30">
-        <v>20.3</v>
+        <v>20.18</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -3022,7 +3022,7 @@
         <v>41000</v>
       </c>
       <c r="B31">
-        <v>20.7</v>
+        <v>20.52</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -3038,7 +3038,7 @@
         <v>43000</v>
       </c>
       <c r="B33">
-        <v>21.3</v>
+        <v>21.12</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -3046,7 +3046,7 @@
         <v>44000</v>
       </c>
       <c r="B34">
-        <v>21.65</v>
+        <v>21.45</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -3054,7 +3054,7 @@
         <v>45000</v>
       </c>
       <c r="B35">
-        <v>21.95</v>
+        <v>21.75</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -3062,7 +3062,7 @@
         <v>46000</v>
       </c>
       <c r="B36">
-        <v>22.2</v>
+        <v>22.02</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -3070,7 +3070,7 @@
         <v>47000</v>
       </c>
       <c r="B37">
-        <v>22.4</v>
+        <v>22.32</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -3186,7 +3186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFE799B-BBDF-4C05-AA5B-57EE87F6BA00}">
   <dimension ref="A1:M136"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
